--- a/Code/Results/Cases/Case_0_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_179/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.27950207661099</v>
+        <v>13.18025290848255</v>
       </c>
       <c r="D2">
-        <v>4.558631873580708</v>
+        <v>5.092998200233177</v>
       </c>
       <c r="E2">
-        <v>8.831461597338523</v>
+        <v>13.61565462538543</v>
       </c>
       <c r="F2">
-        <v>18.44937546791027</v>
+        <v>25.14215664457747</v>
       </c>
       <c r="G2">
-        <v>23.48430219054569</v>
+        <v>30.28802097968242</v>
       </c>
       <c r="H2">
-        <v>8.769487531662421</v>
+        <v>14.64776593385198</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.63287423818026</v>
+        <v>12.598545853874</v>
       </c>
       <c r="L2">
-        <v>5.299423458205911</v>
+        <v>9.309667080691684</v>
       </c>
       <c r="M2">
-        <v>14.53563405510101</v>
+        <v>16.30038046424097</v>
       </c>
       <c r="N2">
-        <v>12.28050342982918</v>
+        <v>17.6442715975552</v>
       </c>
       <c r="O2">
-        <v>14.60601602540333</v>
+        <v>22.50764160354123</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.901534380759022</v>
+        <v>13.14587934746885</v>
       </c>
       <c r="D3">
-        <v>4.41419884868854</v>
+        <v>5.045562305372663</v>
       </c>
       <c r="E3">
-        <v>8.698529357026482</v>
+        <v>13.63393945377854</v>
       </c>
       <c r="F3">
-        <v>17.97726120334794</v>
+        <v>25.15756124184188</v>
       </c>
       <c r="G3">
-        <v>22.81062361416622</v>
+        <v>30.30475339533857</v>
       </c>
       <c r="H3">
-        <v>8.777813846875084</v>
+        <v>14.69267664512524</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.52780939208293</v>
+        <v>12.18273426213017</v>
       </c>
       <c r="L3">
-        <v>5.330966358250265</v>
+        <v>9.332724359298773</v>
       </c>
       <c r="M3">
-        <v>13.76614818824524</v>
+        <v>16.13825030704243</v>
       </c>
       <c r="N3">
-        <v>12.36715800243643</v>
+        <v>17.68154504779005</v>
       </c>
       <c r="O3">
-        <v>14.47002342217499</v>
+        <v>22.56972642742681</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.668959008012134</v>
+        <v>13.12779032418337</v>
       </c>
       <c r="D4">
-        <v>4.322568609716147</v>
+        <v>5.015788849116166</v>
       </c>
       <c r="E4">
-        <v>8.621908116066749</v>
+        <v>13.64772829990681</v>
       </c>
       <c r="F4">
-        <v>17.69954885122106</v>
+        <v>25.17409836901198</v>
       </c>
       <c r="G4">
-        <v>22.41608595689591</v>
+        <v>30.32540677633289</v>
       </c>
       <c r="H4">
-        <v>8.789457865882138</v>
+        <v>14.7228128199231</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.81027978099344</v>
+        <v>11.92106831689177</v>
       </c>
       <c r="L4">
-        <v>5.352500194423576</v>
+        <v>9.34789895055912</v>
       </c>
       <c r="M4">
-        <v>13.27521199515765</v>
+        <v>16.04021432440845</v>
       </c>
       <c r="N4">
-        <v>12.42395494499356</v>
+        <v>17.70616152429199</v>
       </c>
       <c r="O4">
-        <v>14.40013604185849</v>
+        <v>22.61311715221149</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.574201250615582</v>
+        <v>13.12118320936953</v>
       </c>
       <c r="D5">
-        <v>4.284520480763685</v>
+        <v>5.00349836830542</v>
       </c>
       <c r="E5">
-        <v>8.591947221921778</v>
+        <v>13.65399126915129</v>
       </c>
       <c r="F5">
-        <v>17.58953917904904</v>
+        <v>25.18261504076073</v>
       </c>
       <c r="G5">
-        <v>22.26025742869761</v>
+        <v>30.33642668057094</v>
       </c>
       <c r="H5">
-        <v>8.795786381966161</v>
+        <v>14.73573694176677</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.50808219930752</v>
+        <v>11.81299467292969</v>
       </c>
       <c r="L5">
-        <v>5.361807725128774</v>
+        <v>9.354338860266537</v>
       </c>
       <c r="M5">
-        <v>13.07071509761467</v>
+        <v>16.00068229991091</v>
       </c>
       <c r="N5">
-        <v>12.4479864981517</v>
+        <v>17.71662879650859</v>
       </c>
       <c r="O5">
-        <v>14.37499116055324</v>
+        <v>22.63212108709371</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.55847236376724</v>
+        <v>13.12013241907518</v>
       </c>
       <c r="D6">
-        <v>4.27816088821704</v>
+        <v>5.001448183474101</v>
       </c>
       <c r="E6">
-        <v>8.587048608387422</v>
+        <v>13.6550701085268</v>
       </c>
       <c r="F6">
-        <v>17.57146577622809</v>
+        <v>25.18413650508147</v>
       </c>
       <c r="G6">
-        <v>22.23468498070976</v>
+        <v>30.33841354078103</v>
       </c>
       <c r="H6">
-        <v>8.796931145370559</v>
+        <v>14.73792182478785</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.45731137385597</v>
+        <v>11.79496680757942</v>
       </c>
       <c r="L6">
-        <v>5.363385032119951</v>
+        <v>9.35542368222403</v>
       </c>
       <c r="M6">
-        <v>13.03649746467612</v>
+        <v>15.99414440813422</v>
       </c>
       <c r="N6">
-        <v>12.45202999219032</v>
+        <v>17.71839322544285</v>
       </c>
       <c r="O6">
-        <v>14.37101452847862</v>
+        <v>22.6353564089419</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.667680797080283</v>
+        <v>13.12769811659597</v>
       </c>
       <c r="D7">
-        <v>4.322058299968484</v>
+        <v>5.015623726292868</v>
       </c>
       <c r="E7">
-        <v>8.621498934726336</v>
+        <v>13.64781015788162</v>
       </c>
       <c r="F7">
-        <v>17.69805230040216</v>
+        <v>25.17420603403008</v>
       </c>
       <c r="G7">
-        <v>22.41396418341621</v>
+        <v>30.3255448633717</v>
       </c>
       <c r="H7">
-        <v>8.789536880753602</v>
+        <v>14.72298451485725</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.80624388539772</v>
+        <v>11.91961642359524</v>
       </c>
       <c r="L7">
-        <v>5.352623579682356</v>
+        <v>9.34798476389699</v>
       </c>
       <c r="M7">
-        <v>13.2724717371929</v>
+        <v>16.03967943772003</v>
       </c>
       <c r="N7">
-        <v>12.4242754750987</v>
+        <v>17.70630092384328</v>
       </c>
       <c r="O7">
-        <v>14.39978354999781</v>
+        <v>22.61336809845274</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.14936620792285</v>
+        <v>13.1677785423668</v>
       </c>
       <c r="D8">
-        <v>4.509462044582854</v>
+        <v>5.076779867739202</v>
       </c>
       <c r="E8">
-        <v>8.784593306927729</v>
+        <v>13.62142737561364</v>
       </c>
       <c r="F8">
-        <v>18.28412818556579</v>
+        <v>25.14599789363706</v>
       </c>
       <c r="G8">
-        <v>23.2481448429062</v>
+        <v>30.29163268656142</v>
       </c>
       <c r="H8">
-        <v>8.770967317986429</v>
+        <v>14.66271932406791</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.25994837780222</v>
+        <v>12.45658235595809</v>
       </c>
       <c r="L8">
-        <v>5.309842152610343</v>
+        <v>9.31740627915994</v>
       </c>
       <c r="M8">
-        <v>14.27426099447529</v>
+        <v>16.24418710121724</v>
       </c>
       <c r="N8">
-        <v>12.30962631032625</v>
+        <v>17.65676476802142</v>
       </c>
       <c r="O8">
-        <v>14.55625028848946</v>
+        <v>22.52795258864746</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.08423933105433</v>
+        <v>13.27002125398887</v>
       </c>
       <c r="D9">
-        <v>4.852284148396104</v>
+        <v>5.191341332432606</v>
       </c>
       <c r="E9">
-        <v>9.143696571877156</v>
+        <v>13.59002665573663</v>
       </c>
       <c r="F9">
-        <v>19.52521065544413</v>
+        <v>25.14690598591412</v>
       </c>
       <c r="G9">
-        <v>25.02855419371923</v>
+        <v>30.30768990758667</v>
       </c>
       <c r="H9">
-        <v>8.789014161495722</v>
+        <v>14.56488257135022</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.801268446217</v>
+        <v>13.45298993406675</v>
       </c>
       <c r="L9">
-        <v>5.243726770063952</v>
+        <v>9.26549945243876</v>
       </c>
       <c r="M9">
-        <v>16.24564137667058</v>
+        <v>16.65552670538715</v>
       </c>
       <c r="N9">
-        <v>12.11410160621279</v>
+        <v>17.57332274561353</v>
       </c>
       <c r="O9">
-        <v>14.9745504372211</v>
+        <v>22.40241573807503</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.75847451625637</v>
+        <v>13.3591164832932</v>
       </c>
       <c r="D10">
-        <v>5.087619168324354</v>
+        <v>5.271943402274236</v>
       </c>
       <c r="E10">
-        <v>9.430796313318309</v>
+        <v>13.57935747774388</v>
       </c>
       <c r="F10">
-        <v>20.48651821927119</v>
+        <v>25.18186142998796</v>
       </c>
       <c r="G10">
-        <v>26.4151649229225</v>
+        <v>30.36995703677539</v>
       </c>
       <c r="H10">
-        <v>8.839067451975504</v>
+        <v>14.50543586205771</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.48084092202328</v>
+        <v>14.14326143824805</v>
       </c>
       <c r="L10">
-        <v>5.206853024248614</v>
+        <v>9.232255569813729</v>
       </c>
       <c r="M10">
-        <v>17.67146203389501</v>
+        <v>16.96171464650694</v>
       </c>
       <c r="N10">
-        <v>11.989540321176</v>
+        <v>17.52032582338757</v>
       </c>
       <c r="O10">
-        <v>15.35388069290851</v>
+        <v>22.33595014045624</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.06133311100661</v>
+        <v>13.40257465817503</v>
       </c>
       <c r="D11">
-        <v>5.190833613464118</v>
+        <v>5.307776511922943</v>
       </c>
       <c r="E11">
-        <v>9.56628292181605</v>
+        <v>13.57719380513918</v>
       </c>
       <c r="F11">
-        <v>20.93327068570958</v>
+        <v>25.20518763457832</v>
       </c>
       <c r="G11">
-        <v>27.06107872524785</v>
+        <v>30.4092271189037</v>
       </c>
       <c r="H11">
-        <v>8.870588538705505</v>
+        <v>14.48109846157129</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.20461049877701</v>
+        <v>14.44692296340724</v>
       </c>
       <c r="L11">
-        <v>5.192821981600479</v>
+        <v>9.21819015038613</v>
       </c>
       <c r="M11">
-        <v>18.28626048989722</v>
+        <v>17.10137981561798</v>
       </c>
       <c r="N11">
-        <v>11.93732170063156</v>
+        <v>17.49801130019983</v>
       </c>
       <c r="O11">
-        <v>15.54276122700486</v>
+        <v>22.31134247107963</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.17538829700614</v>
+        <v>13.41944194350207</v>
       </c>
       <c r="D12">
-        <v>5.229348287779083</v>
+        <v>5.321220792674589</v>
       </c>
       <c r="E12">
-        <v>9.618274578901049</v>
+        <v>13.57676068479</v>
       </c>
       <c r="F12">
-        <v>21.10370250942417</v>
+        <v>25.21508449981924</v>
       </c>
       <c r="G12">
-        <v>27.30769985432059</v>
+        <v>30.42566638741548</v>
       </c>
       <c r="H12">
-        <v>8.883844662677166</v>
+        <v>14.47227204822001</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.47293238897627</v>
+        <v>14.56033247572602</v>
       </c>
       <c r="L12">
-        <v>5.187921294306175</v>
+        <v>9.213015684449408</v>
       </c>
       <c r="M12">
-        <v>18.51425872605743</v>
+        <v>17.15428094232846</v>
       </c>
       <c r="N12">
-        <v>11.91821501922907</v>
+        <v>17.48981868491729</v>
       </c>
       <c r="O12">
-        <v>15.61667593598641</v>
+        <v>22.3028358095231</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.15085359671728</v>
+        <v>13.41579118314999</v>
       </c>
       <c r="D13">
-        <v>5.221079093452129</v>
+        <v>5.318330963231396</v>
       </c>
       <c r="E13">
-        <v>9.607046999154358</v>
+        <v>13.57683679917016</v>
       </c>
       <c r="F13">
-        <v>21.06694259777562</v>
+        <v>25.21290579845746</v>
       </c>
       <c r="G13">
-        <v>27.25449757515761</v>
+        <v>30.42205624364478</v>
       </c>
       <c r="H13">
-        <v>8.880930054678196</v>
+        <v>14.47415563560969</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.41539971386034</v>
+        <v>14.53597936300369</v>
       </c>
       <c r="L13">
-        <v>5.188958096257089</v>
+        <v>9.214123350700412</v>
       </c>
       <c r="M13">
-        <v>18.46536843812889</v>
+        <v>17.14288781696249</v>
       </c>
       <c r="N13">
-        <v>11.92229982916296</v>
+        <v>17.4915716717619</v>
       </c>
       <c r="O13">
-        <v>15.60065018498633</v>
+        <v>22.30463173371163</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.07072953050589</v>
+        <v>13.4039541728004</v>
       </c>
       <c r="D14">
-        <v>5.19401376518647</v>
+        <v>5.30888511387583</v>
       </c>
       <c r="E14">
-        <v>9.570546654189874</v>
+        <v>13.57715043570833</v>
       </c>
       <c r="F14">
-        <v>20.94726758104178</v>
+        <v>25.20598056363804</v>
       </c>
       <c r="G14">
-        <v>27.08132854492366</v>
+        <v>30.41054818979397</v>
       </c>
       <c r="H14">
-        <v>8.871652329595443</v>
+        <v>14.4803644949438</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.22680058271611</v>
+        <v>14.45628540058259</v>
       </c>
       <c r="L14">
-        <v>5.192410423147116</v>
+        <v>9.217761403006881</v>
       </c>
       <c r="M14">
-        <v>18.30511419604339</v>
+        <v>17.10573199928455</v>
       </c>
       <c r="N14">
-        <v>11.93573623738157</v>
+        <v>17.49733213314746</v>
       </c>
       <c r="O14">
-        <v>15.54879411901059</v>
+        <v>22.31062634172465</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.02156704603515</v>
+        <v>13.39675681476458</v>
       </c>
       <c r="D15">
-        <v>5.177360693722425</v>
+        <v>5.303082837582628</v>
       </c>
       <c r="E15">
-        <v>9.548277973397026</v>
+        <v>13.5773928234723</v>
       </c>
       <c r="F15">
-        <v>20.87412394686072</v>
+        <v>25.2018770497246</v>
       </c>
       <c r="G15">
-        <v>26.97551745979137</v>
+        <v>30.40370324962596</v>
       </c>
       <c r="H15">
-        <v>8.866143133840529</v>
+        <v>14.48421836024375</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.11053005671855</v>
+        <v>14.4072621519539</v>
       </c>
       <c r="L15">
-        <v>5.194579356915598</v>
+        <v>9.22000957703764</v>
       </c>
       <c r="M15">
-        <v>18.20632864068558</v>
+        <v>17.08297345282557</v>
       </c>
       <c r="N15">
-        <v>11.94405421432978</v>
+        <v>17.5008940877792</v>
       </c>
       <c r="O15">
-        <v>15.5173431526141</v>
+        <v>22.31440399071976</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.73859757218797</v>
+        <v>13.3563344346246</v>
       </c>
       <c r="D16">
-        <v>5.080794970521035</v>
+        <v>5.269584416974429</v>
       </c>
       <c r="E16">
-        <v>9.422038801242055</v>
+        <v>13.57955295974855</v>
       </c>
       <c r="F16">
-        <v>20.45750303014076</v>
+        <v>25.18048610466417</v>
       </c>
       <c r="G16">
-        <v>26.37324437595077</v>
+        <v>30.36761047781919</v>
       </c>
       <c r="H16">
-        <v>8.837188838197866</v>
+        <v>14.50708085832152</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.43273350602088</v>
+        <v>14.12320007023337</v>
       </c>
       <c r="L16">
-        <v>5.207826707620114</v>
+        <v>9.233196034133488</v>
       </c>
       <c r="M16">
-        <v>17.63060726316493</v>
+        <v>16.95259126121426</v>
       </c>
       <c r="N16">
-        <v>11.99304473237038</v>
+        <v>17.52182018159777</v>
       </c>
       <c r="O16">
-        <v>15.34186914449637</v>
+        <v>22.33767177281983</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.56395885040773</v>
+        <v>13.33227938725973</v>
       </c>
       <c r="D17">
-        <v>5.020557632079767</v>
+        <v>5.248817131319722</v>
       </c>
       <c r="E17">
-        <v>9.345834168693948</v>
+        <v>13.58156670709455</v>
       </c>
       <c r="F17">
-        <v>20.20426347367395</v>
+        <v>25.16926270568514</v>
       </c>
       <c r="G17">
-        <v>26.00753469393305</v>
+        <v>30.34826885565964</v>
       </c>
       <c r="H17">
-        <v>8.82171167985264</v>
+        <v>14.52179958372709</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.00663648627451</v>
+        <v>13.94621772828092</v>
       </c>
       <c r="L17">
-        <v>5.216668645191494</v>
+        <v>9.241556143523187</v>
       </c>
       <c r="M17">
-        <v>17.26879457701899</v>
+        <v>16.87267333302603</v>
       </c>
       <c r="N17">
-        <v>12.02425662375721</v>
+        <v>17.53511674954669</v>
       </c>
       <c r="O17">
-        <v>15.23843445312971</v>
+        <v>22.35338907314303</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.4631521598659</v>
+        <v>13.3187198566426</v>
       </c>
       <c r="D18">
-        <v>4.985550121859553</v>
+        <v>5.236794213884569</v>
       </c>
       <c r="E18">
-        <v>9.302463927819632</v>
+        <v>13.58297818362175</v>
       </c>
       <c r="F18">
-        <v>20.05950168940548</v>
+        <v>25.16350647359184</v>
       </c>
       <c r="G18">
-        <v>25.79862093102105</v>
+        <v>30.33817467040003</v>
       </c>
       <c r="H18">
-        <v>8.813629750491272</v>
+        <v>14.53051999635302</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.75776308767062</v>
+        <v>13.84345312366484</v>
       </c>
       <c r="L18">
-        <v>5.222011332249042</v>
+        <v>9.246464198434602</v>
       </c>
       <c r="M18">
-        <v>17.05750350982573</v>
+        <v>16.82674476122674</v>
       </c>
       <c r="N18">
-        <v>12.04262543152041</v>
+        <v>17.54293348081357</v>
       </c>
       <c r="O18">
-        <v>15.18047572142317</v>
+        <v>22.36295884224394</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.4289616299803</v>
+        <v>13.31417659479457</v>
       </c>
       <c r="D19">
-        <v>4.973635843849118</v>
+        <v>5.232710201303061</v>
       </c>
       <c r="E19">
-        <v>9.28785913165931</v>
+        <v>13.58349959077386</v>
       </c>
       <c r="F19">
-        <v>20.01064483323798</v>
+        <v>25.16167769554829</v>
       </c>
       <c r="G19">
-        <v>25.72813724057177</v>
+        <v>30.33493408264437</v>
       </c>
       <c r="H19">
-        <v>8.811032323827046</v>
+        <v>14.53351628492771</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.67284621354942</v>
+        <v>13.80849536612057</v>
       </c>
       <c r="L19">
-        <v>5.22386388565789</v>
+        <v>9.248143085401187</v>
       </c>
       <c r="M19">
-        <v>16.98541532438892</v>
+        <v>16.81120195342621</v>
       </c>
       <c r="N19">
-        <v>12.04891551584775</v>
+        <v>17.54560911755265</v>
       </c>
       <c r="O19">
-        <v>15.16111396836767</v>
+        <v>22.36628988028818</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.58258720663055</v>
+        <v>13.33481156621709</v>
       </c>
       <c r="D20">
-        <v>5.027007458311021</v>
+        <v>5.251035967460727</v>
       </c>
       <c r="E20">
-        <v>9.353898726798123</v>
+        <v>13.58132613622844</v>
       </c>
       <c r="F20">
-        <v>20.23112941354003</v>
+        <v>25.1703851188318</v>
       </c>
       <c r="G20">
-        <v>26.04631796666775</v>
+        <v>30.35022117146954</v>
       </c>
       <c r="H20">
-        <v>8.823273923542356</v>
+        <v>14.52020639641657</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.05238761628289</v>
+        <v>13.96515879929528</v>
       </c>
       <c r="L20">
-        <v>5.215700675394871</v>
+        <v>9.240655895284473</v>
       </c>
       <c r="M20">
-        <v>17.30763954099334</v>
+        <v>16.88117709124508</v>
       </c>
       <c r="N20">
-        <v>12.02089075601695</v>
+        <v>17.53368383114611</v>
       </c>
       <c r="O20">
-        <v>15.24928614072633</v>
+        <v>22.35166111001377</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.09428157114458</v>
+        <v>13.40741993231738</v>
       </c>
       <c r="D21">
-        <v>5.201979120283634</v>
+        <v>5.311663019846302</v>
       </c>
       <c r="E21">
-        <v>9.58124920576215</v>
+        <v>13.57704783680984</v>
       </c>
       <c r="F21">
-        <v>20.98238569665508</v>
+        <v>25.20798584086368</v>
       </c>
       <c r="G21">
-        <v>27.13213855319825</v>
+        <v>30.41388586769652</v>
       </c>
       <c r="H21">
-        <v>8.874341119648056</v>
+        <v>14.47853022310461</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.28235254967575</v>
+        <v>14.47973702893467</v>
       </c>
       <c r="L21">
-        <v>5.191385044517297</v>
+        <v>9.21668870092291</v>
       </c>
       <c r="M21">
-        <v>18.35231494995256</v>
+        <v>17.11664554004732</v>
       </c>
       <c r="N21">
-        <v>11.93177128982997</v>
+        <v>17.49563316444565</v>
       </c>
       <c r="O21">
-        <v>15.56396033746286</v>
+        <v>22.30884353195885</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.42500097965689</v>
+        <v>13.45726178087225</v>
       </c>
       <c r="D22">
-        <v>5.313001872551031</v>
+        <v>5.35055577539341</v>
       </c>
       <c r="E22">
-        <v>9.733826268877522</v>
+        <v>13.57650247639861</v>
       </c>
       <c r="F22">
-        <v>21.48065924115605</v>
+        <v>25.23875767857471</v>
       </c>
       <c r="G22">
-        <v>27.8535485784379</v>
+        <v>30.4646330277489</v>
       </c>
       <c r="H22">
-        <v>8.915436967130699</v>
+        <v>14.45356377749241</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.05268890046958</v>
+        <v>14.80679567340735</v>
       </c>
       <c r="L22">
-        <v>5.177907286274828</v>
+        <v>9.201909466194168</v>
       </c>
       <c r="M22">
-        <v>19.00704472069086</v>
+        <v>17.27059447578413</v>
       </c>
       <c r="N22">
-        <v>11.87743133022661</v>
+        <v>17.47226498273545</v>
       </c>
       <c r="O22">
-        <v>15.78356288156033</v>
+        <v>22.2855920631859</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.24885026948282</v>
+        <v>13.4304453645631</v>
       </c>
       <c r="D23">
-        <v>5.254057092100399</v>
+        <v>5.329866482077368</v>
       </c>
       <c r="E23">
-        <v>9.65203315728759</v>
+        <v>13.57658784102106</v>
       </c>
       <c r="F23">
-        <v>21.21408553385777</v>
+        <v>25.22176870526713</v>
       </c>
       <c r="G23">
-        <v>27.46748627943767</v>
+        <v>30.43671445967318</v>
       </c>
       <c r="H23">
-        <v>8.892776879307473</v>
+        <v>14.46668081213539</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.64459872442221</v>
+        <v>14.63311236969389</v>
       </c>
       <c r="L23">
-        <v>5.184873481597893</v>
+        <v>9.209716551740346</v>
       </c>
       <c r="M23">
-        <v>18.66015015873456</v>
+        <v>17.18843740961072</v>
       </c>
       <c r="N23">
-        <v>11.90606637175756</v>
+        <v>17.48459994456461</v>
       </c>
       <c r="O23">
-        <v>15.66506843619586</v>
+        <v>22.29756807526728</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.57416658093734</v>
+        <v>13.3336659262007</v>
       </c>
       <c r="D24">
-        <v>5.024092662441523</v>
+        <v>5.250033091419265</v>
       </c>
       <c r="E24">
-        <v>9.350251365772806</v>
+        <v>13.58143410788518</v>
       </c>
       <c r="F24">
-        <v>20.2189807320222</v>
+        <v>25.1698755067875</v>
       </c>
       <c r="G24">
-        <v>26.02877987114219</v>
+        <v>30.34933533452715</v>
       </c>
       <c r="H24">
-        <v>8.822565095869919</v>
+        <v>14.52092587146793</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.03171569498751</v>
+        <v>13.95659869573141</v>
       </c>
       <c r="L24">
-        <v>5.21613748811456</v>
+        <v>9.241062580653837</v>
       </c>
       <c r="M24">
-        <v>17.29008795340407</v>
+        <v>16.87733248505439</v>
       </c>
       <c r="N24">
-        <v>12.02241114415819</v>
+        <v>17.53433111662201</v>
       </c>
       <c r="O24">
-        <v>15.24437540132344</v>
+        <v>22.35244065992657</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.83311580003391</v>
+        <v>13.2398726362755</v>
       </c>
       <c r="D25">
-        <v>4.762349528626513</v>
+        <v>5.16095471311756</v>
       </c>
       <c r="E25">
-        <v>9.042406988651075</v>
+        <v>13.59634320674886</v>
       </c>
       <c r="F25">
-        <v>19.18030806156034</v>
+        <v>25.1406352561333</v>
       </c>
       <c r="G25">
-        <v>24.53241928934043</v>
+        <v>30.29448442990602</v>
       </c>
       <c r="H25">
-        <v>8.777929313669054</v>
+        <v>14.58916871533265</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.14682055145767</v>
+        <v>13.19029649648186</v>
       </c>
       <c r="L25">
-        <v>5.259623392271054</v>
+        <v>9.27868109675836</v>
       </c>
       <c r="M25">
-        <v>15.69027259966924</v>
+        <v>16.54338274569432</v>
       </c>
       <c r="N25">
-        <v>12.16373921242886</v>
+        <v>17.59443401695872</v>
       </c>
       <c r="O25">
-        <v>14.84900094799924</v>
+        <v>22.43186428754839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_179/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.18025290848255</v>
+        <v>10.27950207661106</v>
       </c>
       <c r="D2">
-        <v>5.092998200233177</v>
+        <v>4.558631873580872</v>
       </c>
       <c r="E2">
-        <v>13.61565462538543</v>
+        <v>8.831461597338574</v>
       </c>
       <c r="F2">
-        <v>25.14215664457747</v>
+        <v>18.44937546791009</v>
       </c>
       <c r="G2">
-        <v>30.28802097968242</v>
+        <v>23.4843021905455</v>
       </c>
       <c r="H2">
-        <v>14.64776593385198</v>
+        <v>8.769487531662369</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.598545853874</v>
+        <v>17.63287423818031</v>
       </c>
       <c r="L2">
-        <v>9.309667080691684</v>
+        <v>5.299423458205883</v>
       </c>
       <c r="M2">
-        <v>16.30038046424097</v>
+        <v>14.53563405510102</v>
       </c>
       <c r="N2">
-        <v>17.6442715975552</v>
+        <v>12.28050342982915</v>
       </c>
       <c r="O2">
-        <v>22.50764160354123</v>
+        <v>14.60601602540324</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.14587934746885</v>
+        <v>9.901534380759037</v>
       </c>
       <c r="D3">
-        <v>5.045562305372663</v>
+        <v>4.414198848688545</v>
       </c>
       <c r="E3">
-        <v>13.63393945377854</v>
+        <v>8.698529357026436</v>
       </c>
       <c r="F3">
-        <v>25.15756124184188</v>
+        <v>17.97726120334796</v>
       </c>
       <c r="G3">
-        <v>30.30475339533857</v>
+        <v>22.81062361416623</v>
       </c>
       <c r="H3">
-        <v>14.69267664512524</v>
+        <v>8.777813846875096</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.18273426213017</v>
+        <v>16.52780939208293</v>
       </c>
       <c r="L3">
-        <v>9.332724359298773</v>
+        <v>5.3309663582502</v>
       </c>
       <c r="M3">
-        <v>16.13825030704243</v>
+        <v>13.76614818824524</v>
       </c>
       <c r="N3">
-        <v>17.68154504779005</v>
+        <v>12.36715800243643</v>
       </c>
       <c r="O3">
-        <v>22.56972642742681</v>
+        <v>14.470023422175</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.12779032418337</v>
+        <v>9.66895900801218</v>
       </c>
       <c r="D4">
-        <v>5.015788849116166</v>
+        <v>4.322568609716104</v>
       </c>
       <c r="E4">
-        <v>13.64772829990681</v>
+        <v>8.621908116066692</v>
       </c>
       <c r="F4">
-        <v>25.17409836901198</v>
+        <v>17.69954885122099</v>
       </c>
       <c r="G4">
-        <v>30.32540677633289</v>
+        <v>22.41608595689562</v>
       </c>
       <c r="H4">
-        <v>14.7228128199231</v>
+        <v>8.789457865882138</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.92106831689177</v>
+        <v>15.81027978099349</v>
       </c>
       <c r="L4">
-        <v>9.34789895055912</v>
+        <v>5.352500194423553</v>
       </c>
       <c r="M4">
-        <v>16.04021432440845</v>
+        <v>13.27521199515761</v>
       </c>
       <c r="N4">
-        <v>17.70616152429199</v>
+        <v>12.4239549449935</v>
       </c>
       <c r="O4">
-        <v>22.61311715221149</v>
+        <v>14.40013604185837</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.12118320936953</v>
+        <v>9.574201250615491</v>
       </c>
       <c r="D5">
-        <v>5.00349836830542</v>
+        <v>4.284520480763905</v>
       </c>
       <c r="E5">
-        <v>13.65399126915129</v>
+        <v>8.59194722192187</v>
       </c>
       <c r="F5">
-        <v>25.18261504076073</v>
+        <v>17.58953917904887</v>
       </c>
       <c r="G5">
-        <v>30.33642668057094</v>
+        <v>22.26025742869734</v>
       </c>
       <c r="H5">
-        <v>14.73573694176677</v>
+        <v>8.795786381966099</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.81299467292969</v>
+        <v>15.50808219930756</v>
       </c>
       <c r="L5">
-        <v>9.354338860266537</v>
+        <v>5.361807725128869</v>
       </c>
       <c r="M5">
-        <v>16.00068229991091</v>
+        <v>13.07071509761467</v>
       </c>
       <c r="N5">
-        <v>17.71662879650859</v>
+        <v>12.4479864981517</v>
       </c>
       <c r="O5">
-        <v>22.63212108709371</v>
+        <v>14.37499116055315</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.12013241907518</v>
+        <v>9.558472363767455</v>
       </c>
       <c r="D6">
-        <v>5.001448183474101</v>
+        <v>4.278160888217275</v>
       </c>
       <c r="E6">
-        <v>13.6550701085268</v>
+        <v>8.587048608387374</v>
       </c>
       <c r="F6">
-        <v>25.18413650508147</v>
+        <v>17.571465776228</v>
       </c>
       <c r="G6">
-        <v>30.33841354078103</v>
+        <v>22.23468498070969</v>
       </c>
       <c r="H6">
-        <v>14.73792182478785</v>
+        <v>8.796931145370587</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.79496680757942</v>
+        <v>15.45731137385593</v>
       </c>
       <c r="L6">
-        <v>9.35542368222403</v>
+        <v>5.363385032119767</v>
       </c>
       <c r="M6">
-        <v>15.99414440813422</v>
+        <v>13.03649746467612</v>
       </c>
       <c r="N6">
-        <v>17.71839322544285</v>
+        <v>12.45202999219032</v>
       </c>
       <c r="O6">
-        <v>22.6353564089419</v>
+        <v>14.37101452847858</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.12769811659597</v>
+        <v>9.667680797080191</v>
       </c>
       <c r="D7">
-        <v>5.015623726292868</v>
+        <v>4.322058299968547</v>
       </c>
       <c r="E7">
-        <v>13.64781015788162</v>
+        <v>8.621498934726347</v>
       </c>
       <c r="F7">
-        <v>25.17420603403008</v>
+        <v>17.69805230040183</v>
       </c>
       <c r="G7">
-        <v>30.3255448633717</v>
+        <v>22.4139641834159</v>
       </c>
       <c r="H7">
-        <v>14.72298451485725</v>
+        <v>8.789536880753495</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.91961642359524</v>
+        <v>15.80624388539782</v>
       </c>
       <c r="L7">
-        <v>9.34798476389699</v>
+        <v>5.35262357968236</v>
       </c>
       <c r="M7">
-        <v>16.03967943772003</v>
+        <v>13.27247173719287</v>
       </c>
       <c r="N7">
-        <v>17.70630092384328</v>
+        <v>12.4242754750986</v>
       </c>
       <c r="O7">
-        <v>22.61336809845274</v>
+        <v>14.39978354999755</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.1677785423668</v>
+        <v>10.14936620792283</v>
       </c>
       <c r="D8">
-        <v>5.076779867739202</v>
+        <v>4.509462044582951</v>
       </c>
       <c r="E8">
-        <v>13.62142737561364</v>
+        <v>8.784593306927773</v>
       </c>
       <c r="F8">
-        <v>25.14599789363706</v>
+        <v>18.28412818556578</v>
       </c>
       <c r="G8">
-        <v>30.29163268656142</v>
+        <v>23.24814484290624</v>
       </c>
       <c r="H8">
-        <v>14.66271932406791</v>
+        <v>8.770967317986434</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.45658235595809</v>
+        <v>17.25994837780219</v>
       </c>
       <c r="L8">
-        <v>9.31740627915994</v>
+        <v>5.309842152610492</v>
       </c>
       <c r="M8">
-        <v>16.24418710121724</v>
+        <v>14.27426099447532</v>
       </c>
       <c r="N8">
-        <v>17.65676476802142</v>
+        <v>12.30962631032622</v>
       </c>
       <c r="O8">
-        <v>22.52795258864746</v>
+        <v>14.55625028848951</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.27002125398887</v>
+        <v>11.08423933105425</v>
       </c>
       <c r="D9">
-        <v>5.191341332432606</v>
+        <v>4.852284148396087</v>
       </c>
       <c r="E9">
-        <v>13.59002665573663</v>
+        <v>9.143696571877165</v>
       </c>
       <c r="F9">
-        <v>25.14690598591412</v>
+        <v>19.52521065544411</v>
       </c>
       <c r="G9">
-        <v>30.30768990758667</v>
+        <v>25.02855419371921</v>
       </c>
       <c r="H9">
-        <v>14.56488257135022</v>
+        <v>8.789014161495722</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.45298993406675</v>
+        <v>19.80126844621697</v>
       </c>
       <c r="L9">
-        <v>9.26549945243876</v>
+        <v>5.243726770063986</v>
       </c>
       <c r="M9">
-        <v>16.65552670538715</v>
+        <v>16.24564137667057</v>
       </c>
       <c r="N9">
-        <v>17.57332274561353</v>
+        <v>12.11410160621276</v>
       </c>
       <c r="O9">
-        <v>22.40241573807503</v>
+        <v>14.97455043722109</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.3591164832932</v>
+        <v>11.75847451625637</v>
       </c>
       <c r="D10">
-        <v>5.271943402274236</v>
+        <v>5.087619168324243</v>
       </c>
       <c r="E10">
-        <v>13.57935747774388</v>
+        <v>9.430796313318318</v>
       </c>
       <c r="F10">
-        <v>25.18186142998796</v>
+        <v>20.48651821927122</v>
       </c>
       <c r="G10">
-        <v>30.36995703677539</v>
+        <v>26.41516492292256</v>
       </c>
       <c r="H10">
-        <v>14.50543586205771</v>
+        <v>8.839067451975415</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.14326143824805</v>
+        <v>21.48084092202329</v>
       </c>
       <c r="L10">
-        <v>9.232255569813729</v>
+        <v>5.206853024248617</v>
       </c>
       <c r="M10">
-        <v>16.96171464650694</v>
+        <v>17.67146203389502</v>
       </c>
       <c r="N10">
-        <v>17.52032582338757</v>
+        <v>11.98954032117599</v>
       </c>
       <c r="O10">
-        <v>22.33595014045624</v>
+        <v>15.35388069290853</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.40257465817503</v>
+        <v>12.06133311100666</v>
       </c>
       <c r="D11">
-        <v>5.307776511922943</v>
+        <v>5.190833613464182</v>
       </c>
       <c r="E11">
-        <v>13.57719380513918</v>
+        <v>9.566282921816061</v>
       </c>
       <c r="F11">
-        <v>25.20518763457832</v>
+        <v>20.93327068570959</v>
       </c>
       <c r="G11">
-        <v>30.4092271189037</v>
+        <v>27.06107872524791</v>
       </c>
       <c r="H11">
-        <v>14.48109846157129</v>
+        <v>8.870588538705459</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.44692296340724</v>
+        <v>22.20461049877698</v>
       </c>
       <c r="L11">
-        <v>9.21819015038613</v>
+        <v>5.192821981600483</v>
       </c>
       <c r="M11">
-        <v>17.10137981561798</v>
+        <v>18.28626048989721</v>
       </c>
       <c r="N11">
-        <v>17.49801130019983</v>
+        <v>11.93732170063156</v>
       </c>
       <c r="O11">
-        <v>22.31134247107963</v>
+        <v>15.54276122700488</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.41944194350207</v>
+        <v>12.17538829700617</v>
       </c>
       <c r="D12">
-        <v>5.321220792674589</v>
+        <v>5.229348287779065</v>
       </c>
       <c r="E12">
-        <v>13.57676068479</v>
+        <v>9.618274578901113</v>
       </c>
       <c r="F12">
-        <v>25.21508449981924</v>
+        <v>21.10370250942414</v>
       </c>
       <c r="G12">
-        <v>30.42566638741548</v>
+        <v>27.30769985432061</v>
       </c>
       <c r="H12">
-        <v>14.47227204822001</v>
+        <v>8.883844662677069</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.56033247572602</v>
+        <v>22.47293238897634</v>
       </c>
       <c r="L12">
-        <v>9.213015684449408</v>
+        <v>5.187921294306124</v>
       </c>
       <c r="M12">
-        <v>17.15428094232846</v>
+        <v>18.5142587260575</v>
       </c>
       <c r="N12">
-        <v>17.48981868491729</v>
+        <v>11.91821501922903</v>
       </c>
       <c r="O12">
-        <v>22.3028358095231</v>
+        <v>15.61667593598635</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.41579118314999</v>
+        <v>12.15085359671716</v>
       </c>
       <c r="D13">
-        <v>5.318330963231396</v>
+        <v>5.22107909345218</v>
       </c>
       <c r="E13">
-        <v>13.57683679917016</v>
+        <v>9.607046999154246</v>
       </c>
       <c r="F13">
-        <v>25.21290579845746</v>
+        <v>21.06694259777563</v>
       </c>
       <c r="G13">
-        <v>30.42205624364478</v>
+        <v>27.25449757515756</v>
       </c>
       <c r="H13">
-        <v>14.47415563560969</v>
+        <v>8.880930054678201</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.53597936300369</v>
+        <v>22.41539971386037</v>
       </c>
       <c r="L13">
-        <v>9.214123350700412</v>
+        <v>5.188958096257037</v>
       </c>
       <c r="M13">
-        <v>17.14288781696249</v>
+        <v>18.46536843812896</v>
       </c>
       <c r="N13">
-        <v>17.4915716717619</v>
+        <v>11.92229982916296</v>
       </c>
       <c r="O13">
-        <v>22.30463173371163</v>
+        <v>15.60065018498632</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.4039541728004</v>
+        <v>12.07072953050588</v>
       </c>
       <c r="D14">
-        <v>5.30888511387583</v>
+        <v>5.194013765186526</v>
       </c>
       <c r="E14">
-        <v>13.57715043570833</v>
+        <v>9.570546654189837</v>
       </c>
       <c r="F14">
-        <v>25.20598056363804</v>
+        <v>20.94726758104171</v>
       </c>
       <c r="G14">
-        <v>30.41054818979397</v>
+        <v>27.08132854492357</v>
       </c>
       <c r="H14">
-        <v>14.4803644949438</v>
+        <v>8.871652329595401</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.45628540058259</v>
+        <v>22.22680058271614</v>
       </c>
       <c r="L14">
-        <v>9.217761403006881</v>
+        <v>5.19241042314706</v>
       </c>
       <c r="M14">
-        <v>17.10573199928455</v>
+        <v>18.30511419604339</v>
       </c>
       <c r="N14">
-        <v>17.49733213314746</v>
+        <v>11.93573623738149</v>
       </c>
       <c r="O14">
-        <v>22.31062634172465</v>
+        <v>15.54879411901049</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.39675681476458</v>
+        <v>12.02156704603517</v>
       </c>
       <c r="D15">
-        <v>5.303082837582628</v>
+        <v>5.177360693722469</v>
       </c>
       <c r="E15">
-        <v>13.5773928234723</v>
+        <v>9.548277973397047</v>
       </c>
       <c r="F15">
-        <v>25.2018770497246</v>
+        <v>20.87412394686064</v>
       </c>
       <c r="G15">
-        <v>30.40370324962596</v>
+        <v>26.97551745979127</v>
       </c>
       <c r="H15">
-        <v>14.48421836024375</v>
+        <v>8.866143133840561</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.4072621519539</v>
+        <v>22.11053005671849</v>
       </c>
       <c r="L15">
-        <v>9.22000957703764</v>
+        <v>5.194579356915566</v>
       </c>
       <c r="M15">
-        <v>17.08297345282557</v>
+        <v>18.20632864068554</v>
       </c>
       <c r="N15">
-        <v>17.5008940877792</v>
+        <v>11.94405421432969</v>
       </c>
       <c r="O15">
-        <v>22.31440399071976</v>
+        <v>15.51734315261403</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.3563344346246</v>
+        <v>11.73859757218794</v>
       </c>
       <c r="D16">
-        <v>5.269584416974429</v>
+        <v>5.080794970521134</v>
       </c>
       <c r="E16">
-        <v>13.57955295974855</v>
+        <v>9.422038801242092</v>
       </c>
       <c r="F16">
-        <v>25.18048610466417</v>
+        <v>20.4575030301407</v>
       </c>
       <c r="G16">
-        <v>30.36761047781919</v>
+        <v>26.37324437595069</v>
       </c>
       <c r="H16">
-        <v>14.50708085832152</v>
+        <v>8.837188838197866</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.12320007023337</v>
+        <v>21.43273350602092</v>
       </c>
       <c r="L16">
-        <v>9.233196034133488</v>
+        <v>5.207826707620149</v>
       </c>
       <c r="M16">
-        <v>16.95259126121426</v>
+        <v>17.63060726316493</v>
       </c>
       <c r="N16">
-        <v>17.52182018159777</v>
+        <v>11.99304473237031</v>
       </c>
       <c r="O16">
-        <v>22.33767177281983</v>
+        <v>15.34186914449633</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.33227938725973</v>
+        <v>11.56395885040768</v>
       </c>
       <c r="D17">
-        <v>5.248817131319722</v>
+        <v>5.020557632079909</v>
       </c>
       <c r="E17">
-        <v>13.58156670709455</v>
+        <v>9.345834168693928</v>
       </c>
       <c r="F17">
-        <v>25.16926270568514</v>
+        <v>20.20426347367385</v>
       </c>
       <c r="G17">
-        <v>30.34826885565964</v>
+        <v>26.00753469393302</v>
       </c>
       <c r="H17">
-        <v>14.52179958372709</v>
+        <v>8.821711679852585</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.94621772828092</v>
+        <v>21.00663648627453</v>
       </c>
       <c r="L17">
-        <v>9.241556143523187</v>
+        <v>5.216668645191466</v>
       </c>
       <c r="M17">
-        <v>16.87267333302603</v>
+        <v>17.26879457701901</v>
       </c>
       <c r="N17">
-        <v>17.53511674954669</v>
+        <v>12.02425662375722</v>
       </c>
       <c r="O17">
-        <v>22.35338907314303</v>
+        <v>15.23843445312967</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.3187198566426</v>
+        <v>11.46315215986586</v>
       </c>
       <c r="D18">
-        <v>5.236794213884569</v>
+        <v>4.985550121859612</v>
       </c>
       <c r="E18">
-        <v>13.58297818362175</v>
+        <v>9.302463927819694</v>
       </c>
       <c r="F18">
-        <v>25.16350647359184</v>
+        <v>20.05950168940553</v>
       </c>
       <c r="G18">
-        <v>30.33817467040003</v>
+        <v>25.79862093102112</v>
       </c>
       <c r="H18">
-        <v>14.53051999635302</v>
+        <v>8.813629750491355</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.84345312366484</v>
+        <v>20.75776308767061</v>
       </c>
       <c r="L18">
-        <v>9.246464198434602</v>
+        <v>5.22201133224915</v>
       </c>
       <c r="M18">
-        <v>16.82674476122674</v>
+        <v>17.05750350982571</v>
       </c>
       <c r="N18">
-        <v>17.54293348081357</v>
+        <v>12.0426254315205</v>
       </c>
       <c r="O18">
-        <v>22.36295884224394</v>
+        <v>15.18047572142322</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.31417659479457</v>
+        <v>11.42896162998032</v>
       </c>
       <c r="D19">
-        <v>5.232710201303061</v>
+        <v>4.973635843848982</v>
       </c>
       <c r="E19">
-        <v>13.58349959077386</v>
+        <v>9.287859131659269</v>
       </c>
       <c r="F19">
-        <v>25.16167769554829</v>
+        <v>20.010644833238</v>
       </c>
       <c r="G19">
-        <v>30.33493408264437</v>
+        <v>25.72813724057177</v>
       </c>
       <c r="H19">
-        <v>14.53351628492771</v>
+        <v>8.811032323827069</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.80849536612057</v>
+        <v>20.67284621354939</v>
       </c>
       <c r="L19">
-        <v>9.248143085401187</v>
+        <v>5.223863885657888</v>
       </c>
       <c r="M19">
-        <v>16.81120195342621</v>
+        <v>16.9854153243889</v>
       </c>
       <c r="N19">
-        <v>17.54560911755265</v>
+        <v>12.04891551584778</v>
       </c>
       <c r="O19">
-        <v>22.36628988028818</v>
+        <v>15.16111396836769</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.33481156621709</v>
+        <v>11.58258720663056</v>
       </c>
       <c r="D20">
-        <v>5.251035967460727</v>
+        <v>5.027007458311015</v>
       </c>
       <c r="E20">
-        <v>13.58132613622844</v>
+        <v>9.353898726798164</v>
       </c>
       <c r="F20">
-        <v>25.1703851188318</v>
+        <v>20.23112941353999</v>
       </c>
       <c r="G20">
-        <v>30.35022117146954</v>
+        <v>26.04631796666773</v>
       </c>
       <c r="H20">
-        <v>14.52020639641657</v>
+        <v>8.823273923542201</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.96515879929528</v>
+        <v>21.05238761628291</v>
       </c>
       <c r="L20">
-        <v>9.240655895284473</v>
+        <v>5.215700675394847</v>
       </c>
       <c r="M20">
-        <v>16.88117709124508</v>
+        <v>17.30763954099335</v>
       </c>
       <c r="N20">
-        <v>17.53368383114611</v>
+        <v>12.02089075601695</v>
       </c>
       <c r="O20">
-        <v>22.35166111001377</v>
+        <v>15.24928614072629</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.40741993231738</v>
+        <v>12.09428157114462</v>
       </c>
       <c r="D21">
-        <v>5.311663019846302</v>
+        <v>5.201979120283582</v>
       </c>
       <c r="E21">
-        <v>13.57704783680984</v>
+        <v>9.581249205762212</v>
       </c>
       <c r="F21">
-        <v>25.20798584086368</v>
+        <v>20.98238569665502</v>
       </c>
       <c r="G21">
-        <v>30.41388586769652</v>
+        <v>27.13213855319828</v>
       </c>
       <c r="H21">
-        <v>14.47853022310461</v>
+        <v>8.874341119648017</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.47973702893467</v>
+        <v>22.28235254967577</v>
       </c>
       <c r="L21">
-        <v>9.21668870092291</v>
+        <v>5.191385044517297</v>
       </c>
       <c r="M21">
-        <v>17.11664554004732</v>
+        <v>18.35231494995256</v>
       </c>
       <c r="N21">
-        <v>17.49563316444565</v>
+        <v>11.93177128982994</v>
       </c>
       <c r="O21">
-        <v>22.30884353195885</v>
+        <v>15.56396033746281</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.45726178087225</v>
+        <v>12.42500097965695</v>
       </c>
       <c r="D22">
-        <v>5.35055577539341</v>
+        <v>5.313001872551056</v>
       </c>
       <c r="E22">
-        <v>13.57650247639861</v>
+        <v>9.73382626887758</v>
       </c>
       <c r="F22">
-        <v>25.23875767857471</v>
+        <v>21.48065924115606</v>
       </c>
       <c r="G22">
-        <v>30.4646330277489</v>
+        <v>27.85354857843788</v>
       </c>
       <c r="H22">
-        <v>14.45356377749241</v>
+        <v>8.915436967130704</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.80679567340735</v>
+        <v>23.05268890046959</v>
       </c>
       <c r="L22">
-        <v>9.201909466194168</v>
+        <v>5.177907286274968</v>
       </c>
       <c r="M22">
-        <v>17.27059447578413</v>
+        <v>19.00704472069084</v>
       </c>
       <c r="N22">
-        <v>17.47226498273545</v>
+        <v>11.87743133022665</v>
       </c>
       <c r="O22">
-        <v>22.2855920631859</v>
+        <v>15.78356288156035</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.4304453645631</v>
+        <v>12.24885026948285</v>
       </c>
       <c r="D23">
-        <v>5.329866482077368</v>
+        <v>5.2540570921004</v>
       </c>
       <c r="E23">
-        <v>13.57658784102106</v>
+        <v>9.652033157287626</v>
       </c>
       <c r="F23">
-        <v>25.22176870526713</v>
+        <v>21.21408553385765</v>
       </c>
       <c r="G23">
-        <v>30.43671445967318</v>
+        <v>27.46748627943752</v>
       </c>
       <c r="H23">
-        <v>14.46668081213539</v>
+        <v>8.892776879307384</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.63311236969389</v>
+        <v>22.64459872442228</v>
       </c>
       <c r="L23">
-        <v>9.209716551740346</v>
+        <v>5.184873481597895</v>
       </c>
       <c r="M23">
-        <v>17.18843740961072</v>
+        <v>18.6601501587346</v>
       </c>
       <c r="N23">
-        <v>17.48459994456461</v>
+        <v>11.90606637175753</v>
       </c>
       <c r="O23">
-        <v>22.29756807526728</v>
+        <v>15.6650684361957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.3336659262007</v>
+        <v>11.57416658093742</v>
       </c>
       <c r="D24">
-        <v>5.250033091419265</v>
+        <v>5.024092662441562</v>
       </c>
       <c r="E24">
-        <v>13.58143410788518</v>
+        <v>9.350251365772836</v>
       </c>
       <c r="F24">
-        <v>25.1698755067875</v>
+        <v>20.2189807320221</v>
       </c>
       <c r="G24">
-        <v>30.34933533452715</v>
+        <v>26.02877987114207</v>
       </c>
       <c r="H24">
-        <v>14.52092587146793</v>
+        <v>8.822565095869873</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.95659869573141</v>
+        <v>21.03171569498756</v>
       </c>
       <c r="L24">
-        <v>9.241062580653837</v>
+        <v>5.216137488114558</v>
       </c>
       <c r="M24">
-        <v>16.87733248505439</v>
+        <v>17.29008795340407</v>
       </c>
       <c r="N24">
-        <v>17.53433111662201</v>
+        <v>12.02241114415816</v>
       </c>
       <c r="O24">
-        <v>22.35244065992657</v>
+        <v>15.24437540132335</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.2398726362755</v>
+        <v>10.83311580003387</v>
       </c>
       <c r="D25">
-        <v>5.16095471311756</v>
+        <v>4.762349528626453</v>
       </c>
       <c r="E25">
-        <v>13.59634320674886</v>
+        <v>9.04240698865109</v>
       </c>
       <c r="F25">
-        <v>25.1406352561333</v>
+        <v>19.1803080615603</v>
       </c>
       <c r="G25">
-        <v>30.29448442990602</v>
+        <v>24.5324192893403</v>
       </c>
       <c r="H25">
-        <v>14.58916871533265</v>
+        <v>8.777929313669077</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.19029649648186</v>
+        <v>19.14682055145769</v>
       </c>
       <c r="L25">
-        <v>9.27868109675836</v>
+        <v>5.259623392271111</v>
       </c>
       <c r="M25">
-        <v>16.54338274569432</v>
+        <v>15.69027259966927</v>
       </c>
       <c r="N25">
-        <v>17.59443401695872</v>
+        <v>12.16373921242882</v>
       </c>
       <c r="O25">
-        <v>22.43186428754839</v>
+        <v>14.84900094799919</v>
       </c>
     </row>
   </sheetData>
